--- a/ConfigurationFolder/sampleTestScript/Testcase.xlsx
+++ b/ConfigurationFolder/sampleTestScript/Testcase.xlsx
@@ -388,7 +388,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
